--- a/SportsInviter/Data/Input/Teams.xlsx
+++ b/SportsInviter/Data/Input/Teams.xlsx
@@ -1,162 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
-  <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82248A34-553B-4925-991C-EA8B7BAC4C9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="162913"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8214AF18-99A1-415F-B339-83EA4A31C354}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-  </x:extLst>
-</x:workbook>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <x:si>
-    <x:t>Teamname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tournament</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Result</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LazzyLADS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DCL_Summer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sucess! Invite Sent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mustangs Blue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cruisers</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Teamname</t>
+  </si>
+  <si>
+    <t>Tournament</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Shadow Warriors</t>
+  </si>
+  <si>
+    <t>DCL_Summer</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="14">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <x:alignment wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,75 +352,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:C4"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B6" sqref="B6 B6:B6"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:cols>
-    <x:col min="1" max="1" width="13.855469" style="3" customWidth="1"/>
-    <x:col min="2" max="2" width="16.140625" style="3" customWidth="1"/>
-    <x:col min="3" max="3" width="38.710938" style="3" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B3" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C3" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3">
-      <x:c r="B6" s="3" t="s"/>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SportsInviter/Data/Input/Teams.xlsx
+++ b/SportsInviter/Data/Input/Teams.xlsx
@@ -1,93 +1,113 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8214AF18-99A1-415F-B339-83EA4A31C354}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEEA19B-A9B9-4BF0-B66F-912DB9CDB0A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Teamname</t>
-  </si>
-  <si>
-    <t>Tournament</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Shadow Warriors</t>
-  </si>
-  <si>
-    <t>DCL_Summer</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <x:si>
+    <x:t>Teamname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tournament</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Result</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shadow Warriors</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DCL_Summer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Failed ! Calendar invite not sent</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,40 +372,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:C2"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="C15" sqref="C15 C15:C15"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="19.710938" style="2" customWidth="1"/>
+    <x:col min="2" max="2" width="16.140625" style="2" customWidth="1"/>
+    <x:col min="3" max="3" width="38.710938" style="2" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="C15" s="2" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/SportsInviter/Data/Input/Teams.xlsx
+++ b/SportsInviter/Data/Input/Teams.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEEA19B-A9B9-4BF0-B66F-912DB9CDB0A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0571C06E-154F-409B-B55C-639A76379A6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -38,7 +38,7 @@
     <x:t>DCL_Summer</x:t>
   </x:si>
   <x:si>
-    <x:t>Failed ! Calendar invite not sent</x:t>
+    <x:t>Sucess! Calendar Invite Sent</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -379,7 +379,7 @@
   <x:dimension ref="A1:C2"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C15" sqref="C15 C15:C15"/>
+      <x:selection activeCell="C2" sqref="C2 C2:C2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,9 +411,6 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:3">
-      <x:c r="C15" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SportsInviter/Data/Input/Teams.xlsx
+++ b/SportsInviter/Data/Input/Teams.xlsx
@@ -1,113 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
-  <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0571C06E-154F-409B-B55C-639A76379A6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="162913"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8166F5A-7CAF-414B-8350-273AF820CB1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-  </x:extLst>
-</x:workbook>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <x:si>
-    <x:t>Teamname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tournament</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Result</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shadow Warriors</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DCL_Summer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sucess! Calendar Invite Sent</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Teamname</t>
+  </si>
+  <si>
+    <t>Tournament</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Shadow Warriors</t>
+  </si>
+  <si>
+    <t>DCL_Summer</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="3">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,50 +352,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:C2"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C2" sqref="C2 C2:C2"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:cols>
-    <x:col min="1" max="1" width="19.710938" style="2" customWidth="1"/>
-    <x:col min="2" max="2" width="16.140625" style="2" customWidth="1"/>
-    <x:col min="3" max="3" width="38.710938" style="2" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SportsInviter/Data/Input/Teams.xlsx
+++ b/SportsInviter/Data/Input/Teams.xlsx
@@ -1,93 +1,156 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8166F5A-7CAF-414B-8350-273AF820CB1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1346972B-E780-46FC-9243-DADED75C4189}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="7860" yWindow="1515" windowWidth="11550" windowHeight="9360" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Teamname</t>
-  </si>
-  <si>
-    <t>Tournament</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Shadow Warriors</t>
-  </si>
-  <si>
-    <t>DCL_Summer</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <x:si>
+    <x:t>Teamname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tournament</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Result</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LazzyLADS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DCL_Summer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Failed! Calendar invite not sent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mustangs Blue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cruisers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Success! Calendar Invite Sent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Westridge Warriors</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maharashtra Sports Club</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shadow Warriors</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="8">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="5">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <x:alignment wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,40 +415,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:C7"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="C8" sqref="C8 C8:C8"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="19.710938" style="3" customWidth="1"/>
+    <x:col min="2" max="2" width="16.140625" style="3" customWidth="1"/>
+    <x:col min="3" max="3" width="38.710938" style="3" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B3" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C3" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C4" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A7" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B7" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="C8" s="3" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/SportsInviter/Data/Input/Teams.xlsx
+++ b/SportsInviter/Data/Input/Teams.xlsx
@@ -1,156 +1,117 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
-  <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1346972B-E780-46FC-9243-DADED75C4189}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="7860" yWindow="1515" windowWidth="11550" windowHeight="9360" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="162913"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035FDB1A-159A-45BD-96FD-B1B6DA85F077}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="8325" yWindow="1995" windowWidth="11550" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-  </x:extLst>
-</x:workbook>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <x:si>
-    <x:t>Teamname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tournament</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Result</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LazzyLADS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DCL_Summer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Failed! Calendar invite not sent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mustangs Blue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cruisers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Success! Calendar Invite Sent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Westridge Warriors</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maharashtra Sports Club</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shadow Warriors</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+  <si>
+    <t>Teamname</t>
+  </si>
+  <si>
+    <t>Tournament</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>LazzyLADS</t>
+  </si>
+  <si>
+    <t>DCL_Summer</t>
+  </si>
+  <si>
+    <t>Success! Calendar Invite Sent</t>
+  </si>
+  <si>
+    <t>Mustangs Blue</t>
+  </si>
+  <si>
+    <t>Cruisers</t>
+  </si>
+  <si>
+    <t>423 Spartans</t>
+  </si>
+  <si>
+    <t>Failed! Calendar invite not sent</t>
+  </si>
+  <si>
+    <t>Maharashtra Sports Club</t>
+  </si>
+  <si>
+    <t>Swadeshi Stars</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="8">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <x:alignment wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,108 +376,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:C7"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C8" sqref="C8 C8:C8"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:cols>
-    <x:col min="1" max="1" width="19.710938" style="3" customWidth="1"/>
-    <x:col min="2" max="2" width="16.140625" style="3" customWidth="1"/>
-    <x:col min="3" max="3" width="38.710938" style="3" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B3" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C3" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C4" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B7" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C7" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3">
-      <x:c r="C8" s="3" t="s"/>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>